--- a/frontend/public/assets/form/FormUploadSO.xlsx
+++ b/frontend/public/assets/form/FormUploadSO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ordering\frontend\public\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\abdul.ibrahim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CFF45D-9AF4-4369-8B5D-D43C2522D1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23EF174-BE22-4C1B-923B-F6D38127BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{09A98C3E-ACFB-44CF-A2FC-DC3FD9FCBE22}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Tgl Delivery</t>
   </si>
   <si>
-    <t>Shop Code</t>
-  </si>
-  <si>
     <t>Part No</t>
   </si>
   <si>
@@ -58,48 +55,6 @@
   </si>
   <si>
     <t>33504-BZ010-B0</t>
-  </si>
-  <si>
-    <t>33504-BZ120-C0</t>
-  </si>
-  <si>
-    <t>33504-BZ180-C0</t>
-  </si>
-  <si>
-    <t>53037-BZ010-00</t>
-  </si>
-  <si>
-    <t>53037-BZ020-00</t>
-  </si>
-  <si>
-    <t>53037-BZ040-00</t>
-  </si>
-  <si>
-    <t>53038-BZ010-00</t>
-  </si>
-  <si>
-    <t>53038-BZ040-00</t>
-  </si>
-  <si>
-    <t>53039-BZ010-00</t>
-  </si>
-  <si>
-    <t>53039-BZ020-00</t>
-  </si>
-  <si>
-    <t>53039-BZ060-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNOB SUB-ASSY, SHIFT LEVER                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAL SUB-ASSY, RADIATOR, RH                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAL SUB-ASSY, RADIATOR, LH                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAL SUB-ASSY, RADIATOR, UPR                      </t>
   </si>
 </sst>
 </file>
@@ -150,12 +105,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,22 +433,23 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,163 +468,50 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45736</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2">
+        <v>1000001</v>
+      </c>
+      <c r="E2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>45736</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
